--- a/result/comparisons/Resultats_clustering_Gclust.xlsx
+++ b/result/comparisons/Resultats_clustering_Gclust.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\OneDrive\Bureau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721D3B02-2314-4888-B130-04F868C9ABB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E765FE9B-90C8-4CD0-8E56-1E9F26314A9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27930" yWindow="600" windowWidth="24930" windowHeight="14985" xr2:uid="{8404BC9F-0F5C-4BE6-99C0-073AA0CD9C7B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>Monoclonal | #cluster = 35 | #seq = 956 | Silhouette = 0.93</t>
   </si>
@@ -99,9 +99,6 @@
     <t>0.92</t>
   </si>
   <si>
-    <t>10min approx</t>
-  </si>
-  <si>
     <t>0.28</t>
   </si>
   <si>
@@ -126,52 +123,34 @@
     <t>0.85</t>
   </si>
   <si>
-    <t>Artificial Data EntireSeq – Clusters from simulation</t>
-  </si>
-  <si>
-    <t>Artificial Data CDR3 – Clusters from simulation</t>
-  </si>
-  <si>
     <t>Artificial Data CDR3 – Clusters from IMGT</t>
   </si>
   <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
     <t>0.81</t>
   </si>
   <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
     <t>0.94</t>
   </si>
   <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
     <t>0.93</t>
   </si>
   <si>
-    <t>Monoclonal | #cluster = 109 | #seq = 956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polyclonal | #cluster = 118 | #seq = 944 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oligoclonal | #cluster = 105 | #seq = 946 </t>
+    <t>Artificial Data CDR3  from simulation</t>
+  </si>
+  <si>
+    <t>Artificial Data EntireSeq from simulation</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.42</t>
   </si>
 </sst>
 </file>
@@ -404,9 +383,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -416,11 +392,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -744,42 +723,42 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="A1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -818,15 +797,15 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -886,36 +865,36 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -930,39 +909,39 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>73</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
+      <c r="C14" s="1">
+        <v>612</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -978,13 +957,13 @@
         <v>8</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1012,52 +991,52 @@
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="1" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1077,55 +1056,55 @@
         <v>530</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="3">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C26" s="3">
         <v>63</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1139,26 +1118,31 @@
         <v>11</v>
       </c>
       <c r="B28" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1">
         <v>40</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A11:G11"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A13:G13"/>
@@ -1166,11 +1150,6 @@
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
